--- a/results/mp/tinybert/dilemma/confidence/84/stop-words-topk-0.1/percents/scores-10.xlsx
+++ b/results/mp/tinybert/dilemma/confidence/84/stop-words-topk-0.1/percents/scores-10.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="63">
   <si>
     <t>anchor score</t>
   </si>
@@ -46,60 +46,33 @@
     <t>worst</t>
   </si>
   <si>
+    <t>scary</t>
+  </si>
+  <si>
+    <t>terrifying</t>
+  </si>
+  <si>
     <t>hate</t>
   </si>
   <si>
-    <t>scary</t>
-  </si>
-  <si>
     <t>boring</t>
   </si>
   <si>
     <t>addicted</t>
   </si>
   <si>
-    <t>terrifying</t>
-  </si>
-  <si>
     <t>dark</t>
   </si>
   <si>
     <t>dangerous</t>
   </si>
   <si>
-    <t>disappointed</t>
-  </si>
-  <si>
     <t>evil</t>
   </si>
   <si>
-    <t>annoying</t>
-  </si>
-  <si>
     <t>negative</t>
   </si>
   <si>
-    <t>frustrating</t>
-  </si>
-  <si>
-    <t>vicious</t>
-  </si>
-  <si>
-    <t>disappointing</t>
-  </si>
-  <si>
-    <t>harsh</t>
-  </si>
-  <si>
-    <t>harmful</t>
-  </si>
-  <si>
-    <t>overly</t>
-  </si>
-  <si>
-    <t>weird</t>
-  </si>
-  <si>
     <t>destroying</t>
   </si>
   <si>
@@ -109,25 +82,10 @@
     <t>uncomfortable</t>
   </si>
   <si>
-    <t>confused</t>
-  </si>
-  <si>
     <t>wrong</t>
   </si>
   <si>
-    <t>terribly</t>
-  </si>
-  <si>
-    <t>hated</t>
-  </si>
-  <si>
-    <t>fucking</t>
-  </si>
-  <si>
-    <t>racist</t>
-  </si>
-  <si>
-    <t>sorry</t>
+    <t>shocked</t>
   </si>
   <si>
     <t>insane</t>
@@ -136,24 +94,33 @@
     <t>fucked</t>
   </si>
   <si>
+    <t>shit</t>
+  </si>
+  <si>
     <t>worse</t>
   </si>
   <si>
+    <t>fake</t>
+  </si>
+  <si>
+    <t>dumb</t>
+  </si>
+  <si>
     <t>0.95-negative</t>
   </si>
   <si>
+    <t>important</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
     <t>interesting</t>
   </si>
   <si>
-    <t>good</t>
-  </si>
-  <si>
     <t>great</t>
   </si>
   <si>
-    <t>important</t>
-  </si>
-  <si>
     <t>best</t>
   </si>
   <si>
@@ -163,64 +130,58 @@
     <t>brilliant</t>
   </si>
   <si>
+    <t>social</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
     <t>better</t>
   </si>
   <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>social</t>
-  </si>
-  <si>
-    <t>liked</t>
-  </si>
-  <si>
-    <t>beautiful</t>
-  </si>
-  <si>
-    <t>loved</t>
-  </si>
-  <si>
     <t>fascinating</t>
   </si>
   <si>
-    <t>accurate</t>
-  </si>
-  <si>
-    <t>became</t>
-  </si>
-  <si>
-    <t>easier</t>
-  </si>
-  <si>
-    <t>engagement</t>
-  </si>
-  <si>
     <t>amazing</t>
   </si>
   <si>
     <t>incredible</t>
   </si>
   <si>
-    <t>glad</t>
-  </si>
-  <si>
-    <t>love</t>
+    <t>relevant</t>
+  </si>
+  <si>
+    <t>powerful</t>
+  </si>
+  <si>
+    <t>digital</t>
+  </si>
+  <si>
+    <t>pretty</t>
   </si>
   <si>
     <t>many</t>
   </si>
   <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>much</t>
+  </si>
+  <si>
     <t>true</t>
   </si>
   <si>
-    <t>doc</t>
-  </si>
-  <si>
-    <t>…</t>
+    <t>really</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>highly</t>
+  </si>
+  <si>
+    <t>worth</t>
   </si>
   <si>
     <t>0.95-positive</t>
@@ -599,7 +560,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BS35"/>
+  <dimension ref="A1:BS27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -607,28 +568,28 @@
   <sheetData>
     <row r="1" spans="1:71">
       <c r="A1" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="J1" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="S1" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="AB1" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="AK1" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="AT1" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="BC1" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="BL1" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:71">
@@ -830,13 +791,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.01852019813319172</v>
+        <v>0.01726919216506494</v>
       </c>
       <c r="C3">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D3">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -848,19 +809,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="K3">
-        <v>0.01043961309252593</v>
+        <v>0.01116815713962185</v>
       </c>
       <c r="L3">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="M3">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -872,19 +833,19 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="S3" s="1" t="s">
         <v>8</v>
       </c>
       <c r="T3">
-        <v>0.0219498143720973</v>
+        <v>0.02042151992691561</v>
       </c>
       <c r="U3">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="V3">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="W3">
         <v>0</v>
@@ -896,19 +857,19 @@
         <v>0</v>
       </c>
       <c r="Z3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AB3" s="1" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="AC3">
-        <v>0.08173542158728705</v>
+        <v>0.01315512939192719</v>
       </c>
       <c r="AD3">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AE3">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AF3">
         <v>1</v>
@@ -920,19 +881,19 @@
         <v>0</v>
       </c>
       <c r="AI3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AK3" s="1" t="s">
         <v>8</v>
       </c>
       <c r="AL3">
-        <v>0.02696233041357468</v>
+        <v>0.02502876819423582</v>
       </c>
       <c r="AM3">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AN3">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AO3">
         <v>0</v>
@@ -944,19 +905,19 @@
         <v>0</v>
       </c>
       <c r="AR3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AT3" s="1" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="AU3">
-        <v>0.06687776187447778</v>
+        <v>0.1095313778561088</v>
       </c>
       <c r="AV3">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AW3">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AX3">
         <v>1</v>
@@ -968,19 +929,19 @@
         <v>0</v>
       </c>
       <c r="BA3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="BC3" s="1" t="s">
         <v>8</v>
       </c>
       <c r="BD3">
-        <v>0.03498235607993849</v>
+        <v>0.03240036542194816</v>
       </c>
       <c r="BE3">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="BF3">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="BG3">
         <v>0</v>
@@ -992,19 +953,19 @@
         <v>0</v>
       </c>
       <c r="BJ3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BL3" s="1" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="BM3">
-        <v>0.05973214167552617</v>
+        <v>0.09055074061762729</v>
       </c>
       <c r="BN3">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BO3">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BP3">
         <v>1</v>
@@ -1016,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="BS3">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:71">
@@ -1024,13 +985,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.01555503875587519</v>
+        <v>0.01501956329673104</v>
       </c>
       <c r="C4">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D4">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -1042,19 +1003,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="K4">
-        <v>0.01039142119237955</v>
+        <v>0.01114411622198002</v>
       </c>
       <c r="L4">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="M4">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -1066,19 +1027,19 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="S4" s="1" t="s">
         <v>9</v>
       </c>
       <c r="T4">
-        <v>0.01842868761153391</v>
+        <v>0.01777149708804385</v>
       </c>
       <c r="U4">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="V4">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="W4">
         <v>0</v>
@@ -1090,19 +1051,19 @@
         <v>0</v>
       </c>
       <c r="Z4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AB4" s="1" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="AC4">
-        <v>0.08058581179725902</v>
+        <v>0.01304093503312851</v>
       </c>
       <c r="AD4">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AE4">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AF4">
         <v>1</v>
@@ -1114,19 +1075,19 @@
         <v>0</v>
       </c>
       <c r="AI4">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AK4" s="1" t="s">
         <v>9</v>
       </c>
       <c r="AL4">
-        <v>0.02262863593903513</v>
+        <v>0.02179355416765489</v>
       </c>
       <c r="AM4">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AN4">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AO4">
         <v>0</v>
@@ -1138,19 +1099,19 @@
         <v>0</v>
       </c>
       <c r="AR4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AT4" s="1" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="AU4">
-        <v>0.06557107658059522</v>
+        <v>0.1080521810285139</v>
       </c>
       <c r="AV4">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AW4">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AX4">
         <v>1</v>
@@ -1162,19 +1123,19 @@
         <v>0</v>
       </c>
       <c r="BA4">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BC4" s="1" t="s">
         <v>9</v>
       </c>
       <c r="BD4">
-        <v>0.02934855326303707</v>
+        <v>0.02822884549503255</v>
       </c>
       <c r="BE4">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="BF4">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="BG4">
         <v>0</v>
@@ -1186,19 +1147,19 @@
         <v>0</v>
       </c>
       <c r="BJ4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BL4" s="1" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="BM4">
-        <v>0.05834991272841702</v>
+        <v>0.08902653575800817</v>
       </c>
       <c r="BN4">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BO4">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BP4">
         <v>1</v>
@@ -1210,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="BS4">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:71">
@@ -1218,7 +1179,7 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.0044356910909382</v>
+        <v>0.004493247507257353</v>
       </c>
       <c r="C5">
         <v>5</v>
@@ -1236,19 +1197,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="K5">
-        <v>0.009699089860932616</v>
+        <v>0.01043964060874161</v>
       </c>
       <c r="L5">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M5">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -1260,13 +1221,13 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S5" s="1" t="s">
         <v>10</v>
       </c>
       <c r="T5">
-        <v>0.00522446225942124</v>
+        <v>0.00527149708804385</v>
       </c>
       <c r="U5">
         <v>5</v>
@@ -1284,19 +1245,19 @@
         <v>0</v>
       </c>
       <c r="Z5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AB5" s="1" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="AC5">
-        <v>0.07742693276872004</v>
+        <v>0.01235425033833116</v>
       </c>
       <c r="AD5">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AE5">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AF5">
         <v>1</v>
@@ -1308,13 +1269,13 @@
         <v>0</v>
       </c>
       <c r="AI5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK5" s="1" t="s">
         <v>10</v>
       </c>
       <c r="AL5">
-        <v>0.006377281659511837</v>
+        <v>0.006408938783039502</v>
       </c>
       <c r="AM5">
         <v>5</v>
@@ -1332,19 +1293,19 @@
         <v>0</v>
       </c>
       <c r="AR5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AT5" s="1" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="AU5">
-        <v>0.06414937782682811</v>
+        <v>0.1040788065714106</v>
       </c>
       <c r="AV5">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AW5">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AX5">
         <v>1</v>
@@ -1356,13 +1317,13 @@
         <v>0</v>
       </c>
       <c r="BA5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC5" s="1" t="s">
         <v>10</v>
       </c>
       <c r="BD5">
-        <v>0.008221792699656793</v>
+        <v>0.008228845495032546</v>
       </c>
       <c r="BE5">
         <v>5</v>
@@ -1380,19 +1341,19 @@
         <v>0</v>
       </c>
       <c r="BJ5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BL5" s="1" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="BM5">
-        <v>0.05776369080616788</v>
+        <v>0.08696075172486484</v>
       </c>
       <c r="BN5">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BO5">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BP5">
         <v>1</v>
@@ -1404,7 +1365,7 @@
         <v>0</v>
       </c>
       <c r="BS5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:71">
@@ -1412,7 +1373,7 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.003682353271572472</v>
+        <v>0.003747378037419688</v>
       </c>
       <c r="C6">
         <v>4</v>
@@ -1430,13 +1391,13 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="K6">
-        <v>0.00966294593582283</v>
+        <v>0.009699103619040457</v>
       </c>
       <c r="L6">
         <v>12</v>
@@ -1454,13 +1415,13 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="S6" s="1" t="s">
         <v>11</v>
       </c>
       <c r="T6">
-        <v>0.004286952687856565</v>
+        <v>0.004407188534886377</v>
       </c>
       <c r="U6">
         <v>4</v>
@@ -1478,13 +1439,13 @@
         <v>0</v>
       </c>
       <c r="Z6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AB6" s="1" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="AC6">
-        <v>0.07656472542619899</v>
+        <v>0.01149627410533579</v>
       </c>
       <c r="AD6">
         <v>12</v>
@@ -1502,13 +1463,13 @@
         <v>0</v>
       </c>
       <c r="AI6">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AK6" s="1" t="s">
         <v>11</v>
       </c>
       <c r="AL6">
-        <v>0.005170597988579472</v>
+        <v>0.005371526954260766</v>
       </c>
       <c r="AM6">
         <v>4</v>
@@ -1526,13 +1487,13 @@
         <v>0</v>
       </c>
       <c r="AR6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AT6" s="1" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="AU6">
-        <v>0.06316936385641619</v>
+        <v>0.09788663687291496</v>
       </c>
       <c r="AV6">
         <v>12</v>
@@ -1550,13 +1511,13 @@
         <v>0</v>
       </c>
       <c r="BA6">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="BC6" s="1" t="s">
         <v>11</v>
       </c>
       <c r="BD6">
-        <v>0.006584430469736123</v>
+        <v>0.006914468425259792</v>
       </c>
       <c r="BE6">
         <v>4</v>
@@ -1574,13 +1535,13 @@
         <v>0</v>
       </c>
       <c r="BJ6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="BL6" s="1" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="BM6">
-        <v>0.05672701909583602</v>
+        <v>0.08260866040229281</v>
       </c>
       <c r="BN6">
         <v>12</v>
@@ -1598,7 +1559,7 @@
         <v>0</v>
       </c>
       <c r="BS6">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:71">
@@ -1606,13 +1567,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.002959135389798233</v>
+        <v>0.003741367808009232</v>
       </c>
       <c r="C7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -1624,13 +1585,13 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="K7">
-        <v>0.005219806546262965</v>
+        <v>0.005219820304370805</v>
       </c>
       <c r="L7">
         <v>6</v>
@@ -1654,13 +1615,13 @@
         <v>12</v>
       </c>
       <c r="T7">
-        <v>0.003492512819851465</v>
+        <v>0.004378639945186708</v>
       </c>
       <c r="U7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="W7">
         <v>0</v>
@@ -1672,13 +1633,13 @@
         <v>0</v>
       </c>
       <c r="Z7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AB7" s="1" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="AC7">
-        <v>0.05071379251479691</v>
+        <v>0.006177125169165579</v>
       </c>
       <c r="AD7">
         <v>6</v>
@@ -1702,13 +1663,13 @@
         <v>12</v>
       </c>
       <c r="AL7">
-        <v>0.004272064448390805</v>
+        <v>0.005310037684138403</v>
       </c>
       <c r="AM7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AN7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AO7">
         <v>0</v>
@@ -1720,13 +1681,13 @@
         <v>0</v>
       </c>
       <c r="AR7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AT7" s="1" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="AU7">
-        <v>0.04679905957051822</v>
+        <v>0.05851482344054889</v>
       </c>
       <c r="AV7">
         <v>6</v>
@@ -1750,13 +1711,13 @@
         <v>12</v>
       </c>
       <c r="BD7">
-        <v>0.005519347054053749</v>
+        <v>0.006800274066461116</v>
       </c>
       <c r="BE7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BF7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BG7">
         <v>0</v>
@@ -1768,13 +1729,13 @@
         <v>0</v>
       </c>
       <c r="BJ7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BL7" s="1" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="BM7">
-        <v>0.04491631387968629</v>
+        <v>0.05420980517743206</v>
       </c>
       <c r="BN7">
         <v>6</v>
@@ -1800,7 +1761,7 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.002953111402279935</v>
+        <v>0.003001508567582025</v>
       </c>
       <c r="C8">
         <v>3</v>
@@ -1818,13 +1779,13 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="K8">
-        <v>0.004473259327151356</v>
+        <v>0.004473273085259197</v>
       </c>
       <c r="L8">
         <v>5</v>
@@ -1848,7 +1809,7 @@
         <v>13</v>
       </c>
       <c r="T8">
-        <v>0.003463898879139551</v>
+        <v>0.003542879981728903</v>
       </c>
       <c r="U8">
         <v>3</v>
@@ -1866,13 +1827,13 @@
         <v>0</v>
       </c>
       <c r="Z8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB8" s="1" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="AC8">
-        <v>0.04626160247247638</v>
+        <v>0.005290600346470544</v>
       </c>
       <c r="AD8">
         <v>5</v>
@@ -1896,7 +1857,7 @@
         <v>13</v>
       </c>
       <c r="AL8">
-        <v>0.004210434422242066</v>
+        <v>0.004334115125482032</v>
       </c>
       <c r="AM8">
         <v>3</v>
@@ -1914,13 +1875,13 @@
         <v>0</v>
       </c>
       <c r="AR8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT8" s="1" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="AU8">
-        <v>0.04390733986113324</v>
+        <v>0.05195285453515453</v>
       </c>
       <c r="AV8">
         <v>5</v>
@@ -1944,7 +1905,7 @@
         <v>13</v>
       </c>
       <c r="BD8">
-        <v>0.00540489129120609</v>
+        <v>0.005600091355487039</v>
       </c>
       <c r="BE8">
         <v>3</v>
@@ -1962,13 +1923,13 @@
         <v>0</v>
       </c>
       <c r="BJ8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL8" s="1" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="BM8">
-        <v>0.04277508439193935</v>
+        <v>0.04947666263995526</v>
       </c>
       <c r="BN8">
         <v>5</v>
@@ -1994,7 +1955,7 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.002947087414761638</v>
+        <v>0.002995498338171568</v>
       </c>
       <c r="C9">
         <v>3</v>
@@ -2012,13 +1973,13 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="K9">
-        <v>0.003726712108039746</v>
+        <v>0.003726725866147588</v>
       </c>
       <c r="L9">
         <v>4</v>
@@ -2042,7 +2003,7 @@
         <v>14</v>
       </c>
       <c r="T9">
-        <v>0.003435284938427636</v>
+        <v>0.003514331392029234</v>
       </c>
       <c r="U9">
         <v>3</v>
@@ -2060,13 +2021,13 @@
         <v>0</v>
       </c>
       <c r="Z9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AB9" s="1" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="AC9">
-        <v>0.04180941243015587</v>
+        <v>0.004404075523775509</v>
       </c>
       <c r="AD9">
         <v>4</v>
@@ -2090,7 +2051,7 @@
         <v>14</v>
       </c>
       <c r="AL9">
-        <v>0.004148804396093326</v>
+        <v>0.004272625855359668</v>
       </c>
       <c r="AM9">
         <v>3</v>
@@ -2108,13 +2069,13 @@
         <v>0</v>
       </c>
       <c r="AR9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AT9" s="1" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="AU9">
-        <v>0.04101562015174826</v>
+        <v>0.04539088562976018</v>
       </c>
       <c r="AV9">
         <v>4</v>
@@ -2138,7 +2099,7 @@
         <v>14</v>
       </c>
       <c r="BD9">
-        <v>0.00529043552835843</v>
+        <v>0.005485896996688363</v>
       </c>
       <c r="BE9">
         <v>3</v>
@@ -2156,13 +2117,13 @@
         <v>0</v>
       </c>
       <c r="BJ9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BL9" s="1" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="BM9">
-        <v>0.04063385490419242</v>
+        <v>0.04474352010247847</v>
       </c>
       <c r="BN9">
         <v>4</v>
@@ -2188,7 +2149,7 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.002922991464688446</v>
+        <v>0.002965447191119285</v>
       </c>
       <c r="C10">
         <v>3</v>
@@ -2209,10 +2170,10 @@
         <v>6</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="K10">
-        <v>0.00297414090140984</v>
+        <v>0.002349104558938036</v>
       </c>
       <c r="L10">
         <v>3</v>
@@ -2230,13 +2191,13 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>1</v>
+        <v>105</v>
       </c>
       <c r="S10" s="1" t="s">
         <v>15</v>
       </c>
       <c r="T10">
-        <v>0.003320829175579976</v>
+        <v>0.00337158844353089</v>
       </c>
       <c r="U10">
         <v>3</v>
@@ -2257,16 +2218,16 @@
         <v>6</v>
       </c>
       <c r="AB10" s="1" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="AC10">
-        <v>0.03721352116408184</v>
+        <v>0.0025739286989861</v>
       </c>
       <c r="AD10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AE10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AF10">
         <v>1</v>
@@ -2278,13 +2239,13 @@
         <v>0</v>
       </c>
       <c r="AI10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AK10" s="1" t="s">
         <v>15</v>
       </c>
       <c r="AL10">
-        <v>0.003902284291498367</v>
+        <v>0.00396517950474785</v>
       </c>
       <c r="AM10">
         <v>3</v>
@@ -2305,16 +2266,16 @@
         <v>6</v>
       </c>
       <c r="AT10" s="1" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="AU10">
-        <v>0.03796056478062795</v>
+        <v>0.03152734940517404</v>
       </c>
       <c r="AV10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AW10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AX10">
         <v>1</v>
@@ -2326,13 +2287,13 @@
         <v>0</v>
       </c>
       <c r="BA10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BC10" s="1" t="s">
         <v>15</v>
       </c>
       <c r="BD10">
-        <v>0.004832612476967793</v>
+        <v>0.004914925202694987</v>
       </c>
       <c r="BE10">
         <v>3</v>
@@ -2353,16 +2314,16 @@
         <v>6</v>
       </c>
       <c r="BL10" s="1" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="BM10">
-        <v>0.03831984679805685</v>
+        <v>0.03451513259771532</v>
       </c>
       <c r="BN10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BO10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BP10">
         <v>1</v>
@@ -2374,7 +2335,7 @@
         <v>0</v>
       </c>
       <c r="BS10">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:71">
@@ -2382,7 +2343,7 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.0022178455454691</v>
+        <v>0.002249628868333905</v>
       </c>
       <c r="C11">
         <v>2</v>
@@ -2403,10 +2364,10 @@
         <v>0</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="K11">
-        <v>0.002233617669816528</v>
+        <v>0.002221610969103457</v>
       </c>
       <c r="L11">
         <v>2</v>
@@ -2424,13 +2385,13 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S11" s="1" t="s">
         <v>16</v>
       </c>
       <c r="T11">
-        <v>0.00261223112971062</v>
+        <v>0.00265002283887176</v>
       </c>
       <c r="U11">
         <v>2</v>
@@ -2451,10 +2412,10 @@
         <v>0</v>
       </c>
       <c r="AB11" s="1" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="AC11">
-        <v>0.03290503234551482</v>
+        <v>0.0025739286989861</v>
       </c>
       <c r="AD11">
         <v>2</v>
@@ -2472,13 +2433,13 @@
         <v>0</v>
       </c>
       <c r="AI11">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AK11" s="1" t="s">
         <v>16</v>
       </c>
       <c r="AL11">
-        <v>0.003188640829755918</v>
+        <v>0.003235214026580933</v>
       </c>
       <c r="AM11">
         <v>2</v>
@@ -2499,10 +2460,10 @@
         <v>0</v>
       </c>
       <c r="AT11" s="1" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="AU11">
-        <v>0.03523218073297829</v>
+        <v>0.03152734940517404</v>
       </c>
       <c r="AV11">
         <v>2</v>
@@ -2520,13 +2481,13 @@
         <v>0</v>
       </c>
       <c r="BA11">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BC11" s="1" t="s">
         <v>16</v>
       </c>
       <c r="BD11">
-        <v>0.004110896349828396</v>
+        <v>0.004171519926915611</v>
       </c>
       <c r="BE11">
         <v>2</v>
@@ -2547,10 +2508,10 @@
         <v>0</v>
       </c>
       <c r="BL11" s="1" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="BM11">
-        <v>0.03635139592869856</v>
+        <v>0.03451513259771532</v>
       </c>
       <c r="BN11">
         <v>2</v>
@@ -2568,7 +2529,7 @@
         <v>0</v>
       </c>
       <c r="BS11">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:71">
@@ -2576,7 +2537,7 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.0022178455454691</v>
+        <v>0.002249628868333905</v>
       </c>
       <c r="C12">
         <v>2</v>
@@ -2597,10 +2558,10 @@
         <v>0</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="K12">
-        <v>0.002221569694779933</v>
+        <v>0.002221610969103457</v>
       </c>
       <c r="L12">
         <v>2</v>
@@ -2624,7 +2585,7 @@
         <v>17</v>
       </c>
       <c r="T12">
-        <v>0.00261223112971062</v>
+        <v>0.00265002283887176</v>
       </c>
       <c r="U12">
         <v>2</v>
@@ -2645,16 +2606,16 @@
         <v>0</v>
       </c>
       <c r="AB12" s="1" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AC12">
-        <v>0.03261762989800781</v>
+        <v>0.001744501055690402</v>
       </c>
       <c r="AD12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AF12">
         <v>1</v>
@@ -2666,13 +2627,13 @@
         <v>0</v>
       </c>
       <c r="AI12">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AK12" s="1" t="s">
         <v>17</v>
       </c>
       <c r="AL12">
-        <v>0.003188640829755918</v>
+        <v>0.003235214026580933</v>
       </c>
       <c r="AM12">
         <v>2</v>
@@ -2693,16 +2654,16 @@
         <v>0</v>
       </c>
       <c r="AT12" s="1" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AU12">
-        <v>0.03490550940950765</v>
+        <v>0.02570497891357714</v>
       </c>
       <c r="AV12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AW12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AX12">
         <v>1</v>
@@ -2714,13 +2675,13 @@
         <v>0</v>
       </c>
       <c r="BA12">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BC12" s="1" t="s">
         <v>17</v>
       </c>
       <c r="BD12">
-        <v>0.004110896349828396</v>
+        <v>0.004171519926915611</v>
       </c>
       <c r="BE12">
         <v>2</v>
@@ -2741,16 +2702,16 @@
         <v>0</v>
       </c>
       <c r="BL12" s="1" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="BM12">
-        <v>0.03600583869192127</v>
+        <v>0.03054409249004809</v>
       </c>
       <c r="BN12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BO12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BP12">
         <v>1</v>
@@ -2762,7 +2723,7 @@
         <v>0</v>
       </c>
       <c r="BS12">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:71">
@@ -2770,7 +2731,7 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.0022178455454691</v>
+        <v>0.002249628868333905</v>
       </c>
       <c r="C13">
         <v>2</v>
@@ -2791,16 +2752,16 @@
         <v>0</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="K13">
-        <v>0.001595074992876955</v>
+        <v>0.001487084208812761</v>
       </c>
       <c r="L13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -2812,13 +2773,13 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>106</v>
+        <v>0</v>
       </c>
       <c r="S13" s="1" t="s">
         <v>18</v>
       </c>
       <c r="T13">
-        <v>0.00261223112971062</v>
+        <v>0.00265002283887176</v>
       </c>
       <c r="U13">
         <v>2</v>
@@ -2839,10 +2800,10 @@
         <v>0</v>
       </c>
       <c r="AB13" s="1" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="AC13">
-        <v>0.0284528423031943</v>
+        <v>0.001744501055690402</v>
       </c>
       <c r="AD13">
         <v>1</v>
@@ -2866,7 +2827,7 @@
         <v>18</v>
       </c>
       <c r="AL13">
-        <v>0.003188640829755918</v>
+        <v>0.003235214026580933</v>
       </c>
       <c r="AM13">
         <v>2</v>
@@ -2887,10 +2848,10 @@
         <v>0</v>
       </c>
       <c r="AT13" s="1" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="AU13">
-        <v>0.03234046102359331</v>
+        <v>0.02570497891357714</v>
       </c>
       <c r="AV13">
         <v>1</v>
@@ -2914,7 +2875,7 @@
         <v>18</v>
       </c>
       <c r="BD13">
-        <v>0.004110896349828396</v>
+        <v>0.004171519926915611</v>
       </c>
       <c r="BE13">
         <v>2</v>
@@ -2935,10 +2896,10 @@
         <v>0</v>
       </c>
       <c r="BL13" s="1" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="BM13">
-        <v>0.03421016644095162</v>
+        <v>0.03054409249004809</v>
       </c>
       <c r="BN13">
         <v>1</v>
@@ -2964,13 +2925,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.0022178455454691</v>
+        <v>0.001497749169085784</v>
       </c>
       <c r="C14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -2985,10 +2946,10 @@
         <v>0</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="K14">
-        <v>0.00148707045070492</v>
+        <v>0.001487084208812761</v>
       </c>
       <c r="L14">
         <v>1</v>
@@ -3012,13 +2973,13 @@
         <v>19</v>
       </c>
       <c r="T14">
-        <v>0.00261223112971062</v>
+        <v>0.001757165696014617</v>
       </c>
       <c r="U14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W14">
         <v>0</v>
@@ -3033,10 +2994,10 @@
         <v>0</v>
       </c>
       <c r="AB14" s="1" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="AC14">
-        <v>0.0284528423031943</v>
+        <v>0.001744501055690402</v>
       </c>
       <c r="AD14">
         <v>1</v>
@@ -3060,13 +3021,13 @@
         <v>19</v>
       </c>
       <c r="AL14">
-        <v>0.003188640829755918</v>
+        <v>0.002136312927679834</v>
       </c>
       <c r="AM14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AN14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AO14">
         <v>0</v>
@@ -3081,10 +3042,10 @@
         <v>0</v>
       </c>
       <c r="AT14" s="1" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="AU14">
-        <v>0.03234046102359331</v>
+        <v>0.02570497891357714</v>
       </c>
       <c r="AV14">
         <v>1</v>
@@ -3108,13 +3069,13 @@
         <v>19</v>
       </c>
       <c r="BD14">
-        <v>0.004110896349828396</v>
+        <v>0.002742948498344182</v>
       </c>
       <c r="BE14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BF14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BG14">
         <v>0</v>
@@ -3129,10 +3090,10 @@
         <v>0</v>
       </c>
       <c r="BL14" s="1" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="BM14">
-        <v>0.03421016644095162</v>
+        <v>0.03054409249004809</v>
       </c>
       <c r="BN14">
         <v>1</v>
@@ -3158,13 +3119,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.0022178455454691</v>
+        <v>0.001497749169085784</v>
       </c>
       <c r="C15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -3179,10 +3140,10 @@
         <v>0</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="K15">
-        <v>0.00148707045070492</v>
+        <v>0.001487084208812761</v>
       </c>
       <c r="L15">
         <v>1</v>
@@ -3206,13 +3167,13 @@
         <v>20</v>
       </c>
       <c r="T15">
-        <v>0.00261223112971062</v>
+        <v>0.001757165696014617</v>
       </c>
       <c r="U15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W15">
         <v>0</v>
@@ -3227,10 +3188,10 @@
         <v>0</v>
       </c>
       <c r="AB15" s="1" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AC15">
-        <v>0.0284528423031943</v>
+        <v>0.001715952465990733</v>
       </c>
       <c r="AD15">
         <v>1</v>
@@ -3248,19 +3209,19 @@
         <v>0</v>
       </c>
       <c r="AI15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK15" s="1" t="s">
         <v>20</v>
       </c>
       <c r="AL15">
-        <v>0.003188640829755918</v>
+        <v>0.002136312927679834</v>
       </c>
       <c r="AM15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AN15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AO15">
         <v>0</v>
@@ -3275,10 +3236,10 @@
         <v>0</v>
       </c>
       <c r="AT15" s="1" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AU15">
-        <v>0.03234046102359331</v>
+        <v>0.02533517970667841</v>
       </c>
       <c r="AV15">
         <v>1</v>
@@ -3296,19 +3257,19 @@
         <v>0</v>
       </c>
       <c r="BA15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC15" s="1" t="s">
         <v>20</v>
       </c>
       <c r="BD15">
-        <v>0.004110896349828396</v>
+        <v>0.002742948498344182</v>
       </c>
       <c r="BE15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BF15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BG15">
         <v>0</v>
@@ -3323,10 +3284,10 @@
         <v>0</v>
       </c>
       <c r="BL15" s="1" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="BM15">
-        <v>0.03421016644095162</v>
+        <v>0.03016304127514331</v>
       </c>
       <c r="BN15">
         <v>1</v>
@@ -3344,7 +3305,7 @@
         <v>0</v>
       </c>
       <c r="BS15">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:71">
@@ -3352,13 +3313,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.0022178455454691</v>
+        <v>0.001497749169085784</v>
       </c>
       <c r="C16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -3373,10 +3334,10 @@
         <v>0</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="K16">
-        <v>0.00148707045070492</v>
+        <v>0.001481073979402305</v>
       </c>
       <c r="L16">
         <v>1</v>
@@ -3394,19 +3355,19 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S16" s="1" t="s">
         <v>21</v>
       </c>
       <c r="T16">
-        <v>0.00261223112971062</v>
+        <v>0.001757165696014617</v>
       </c>
       <c r="U16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W16">
         <v>0</v>
@@ -3421,10 +3382,10 @@
         <v>0</v>
       </c>
       <c r="AB16" s="1" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="AC16">
-        <v>0.0284528423031943</v>
+        <v>0.001715952465990733</v>
       </c>
       <c r="AD16">
         <v>1</v>
@@ -3442,19 +3403,19 @@
         <v>0</v>
       </c>
       <c r="AI16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK16" s="1" t="s">
         <v>21</v>
       </c>
       <c r="AL16">
-        <v>0.003188640829755918</v>
+        <v>0.002136312927679834</v>
       </c>
       <c r="AM16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AN16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AO16">
         <v>0</v>
@@ -3469,10 +3430,10 @@
         <v>0</v>
       </c>
       <c r="AT16" s="1" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="AU16">
-        <v>0.03234046102359331</v>
+        <v>0.02533517970667841</v>
       </c>
       <c r="AV16">
         <v>1</v>
@@ -3490,19 +3451,19 @@
         <v>0</v>
       </c>
       <c r="BA16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC16" s="1" t="s">
         <v>21</v>
       </c>
       <c r="BD16">
-        <v>0.004110896349828396</v>
+        <v>0.002742948498344182</v>
       </c>
       <c r="BE16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BF16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BG16">
         <v>0</v>
@@ -3517,10 +3478,10 @@
         <v>0</v>
       </c>
       <c r="BL16" s="1" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="BM16">
-        <v>0.03421016644095162</v>
+        <v>0.03016304127514331</v>
       </c>
       <c r="BN16">
         <v>1</v>
@@ -3538,7 +3499,7 @@
         <v>0</v>
       </c>
       <c r="BS16">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:71">
@@ -3546,13 +3507,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.0022178455454691</v>
+        <v>0.001497749169085784</v>
       </c>
       <c r="C17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -3567,10 +3528,10 @@
         <v>0</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="K17">
-        <v>0.00148707045070492</v>
+        <v>0.001481073979402305</v>
       </c>
       <c r="L17">
         <v>1</v>
@@ -3588,19 +3549,19 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S17" s="1" t="s">
         <v>22</v>
       </c>
       <c r="T17">
-        <v>0.00261223112971062</v>
+        <v>0.001757165696014617</v>
       </c>
       <c r="U17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W17">
         <v>0</v>
@@ -3615,10 +3576,10 @@
         <v>0</v>
       </c>
       <c r="AB17" s="1" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="AC17">
-        <v>0.0284528423031943</v>
+        <v>0.001715952465990733</v>
       </c>
       <c r="AD17">
         <v>1</v>
@@ -3636,19 +3597,19 @@
         <v>0</v>
       </c>
       <c r="AI17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK17" s="1" t="s">
         <v>22</v>
       </c>
       <c r="AL17">
-        <v>0.003188640829755918</v>
+        <v>0.002136312927679834</v>
       </c>
       <c r="AM17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AN17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AO17">
         <v>0</v>
@@ -3663,10 +3624,10 @@
         <v>0</v>
       </c>
       <c r="AT17" s="1" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="AU17">
-        <v>0.03234046102359331</v>
+        <v>0.02533517970667841</v>
       </c>
       <c r="AV17">
         <v>1</v>
@@ -3684,19 +3645,19 @@
         <v>0</v>
       </c>
       <c r="BA17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC17" s="1" t="s">
         <v>22</v>
       </c>
       <c r="BD17">
-        <v>0.004110896349828396</v>
+        <v>0.002742948498344182</v>
       </c>
       <c r="BE17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BF17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BG17">
         <v>0</v>
@@ -3711,10 +3672,10 @@
         <v>0</v>
       </c>
       <c r="BL17" s="1" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="BM17">
-        <v>0.03421016644095162</v>
+        <v>0.03016304127514331</v>
       </c>
       <c r="BN17">
         <v>1</v>
@@ -3732,7 +3693,7 @@
         <v>0</v>
       </c>
       <c r="BS17">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:71">
@@ -3740,13 +3701,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.0022178455454691</v>
+        <v>0.001497749169085784</v>
       </c>
       <c r="C18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -3761,10 +3722,10 @@
         <v>0</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="K18">
-        <v>0.00148707045070492</v>
+        <v>0.001481073979402305</v>
       </c>
       <c r="L18">
         <v>1</v>
@@ -3782,19 +3743,19 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S18" s="1" t="s">
         <v>23</v>
       </c>
       <c r="T18">
-        <v>0.00261223112971062</v>
+        <v>0.001757165696014617</v>
       </c>
       <c r="U18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W18">
         <v>0</v>
@@ -3809,10 +3770,10 @@
         <v>0</v>
       </c>
       <c r="AB18" s="1" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="AC18">
-        <v>0.0284528423031943</v>
+        <v>0.001715952465990733</v>
       </c>
       <c r="AD18">
         <v>1</v>
@@ -3830,19 +3791,19 @@
         <v>0</v>
       </c>
       <c r="AI18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK18" s="1" t="s">
         <v>23</v>
       </c>
       <c r="AL18">
-        <v>0.003188640829755918</v>
+        <v>0.002136312927679834</v>
       </c>
       <c r="AM18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AN18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AO18">
         <v>0</v>
@@ -3857,10 +3818,10 @@
         <v>0</v>
       </c>
       <c r="AT18" s="1" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="AU18">
-        <v>0.03234046102359331</v>
+        <v>0.02533517970667841</v>
       </c>
       <c r="AV18">
         <v>1</v>
@@ -3878,19 +3839,19 @@
         <v>0</v>
       </c>
       <c r="BA18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC18" s="1" t="s">
         <v>23</v>
       </c>
       <c r="BD18">
-        <v>0.004110896349828396</v>
+        <v>0.002742948498344182</v>
       </c>
       <c r="BE18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BF18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BG18">
         <v>0</v>
@@ -3905,10 +3866,10 @@
         <v>0</v>
       </c>
       <c r="BL18" s="1" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="BM18">
-        <v>0.03421016644095162</v>
+        <v>0.03016304127514331</v>
       </c>
       <c r="BN18">
         <v>1</v>
@@ -3926,7 +3887,7 @@
         <v>0</v>
       </c>
       <c r="BS18">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:71">
@@ -3934,13 +3895,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.0022178455454691</v>
+        <v>0.001497749169085784</v>
       </c>
       <c r="C19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -3955,10 +3916,10 @@
         <v>0</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="K19">
-        <v>0.00148707045070492</v>
+        <v>0.001481073979402305</v>
       </c>
       <c r="L19">
         <v>1</v>
@@ -3976,19 +3937,19 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S19" s="1" t="s">
         <v>24</v>
       </c>
       <c r="T19">
-        <v>0.00261223112971062</v>
+        <v>0.001757165696014617</v>
       </c>
       <c r="U19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W19">
         <v>0</v>
@@ -4003,10 +3964,10 @@
         <v>0</v>
       </c>
       <c r="AB19" s="1" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="AC19">
-        <v>0.0284528423031943</v>
+        <v>0.001687403876291065</v>
       </c>
       <c r="AD19">
         <v>1</v>
@@ -4024,19 +3985,19 @@
         <v>0</v>
       </c>
       <c r="AI19">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AK19" s="1" t="s">
         <v>24</v>
       </c>
       <c r="AL19">
-        <v>0.003188640829755918</v>
+        <v>0.002136312927679834</v>
       </c>
       <c r="AM19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AN19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AO19">
         <v>0</v>
@@ -4051,10 +4012,10 @@
         <v>0</v>
       </c>
       <c r="AT19" s="1" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="AU19">
-        <v>0.03234046102359331</v>
+        <v>0.02496538049977969</v>
       </c>
       <c r="AV19">
         <v>1</v>
@@ -4072,19 +4033,19 @@
         <v>0</v>
       </c>
       <c r="BA19">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BC19" s="1" t="s">
         <v>24</v>
       </c>
       <c r="BD19">
-        <v>0.004110896349828396</v>
+        <v>0.002742948498344182</v>
       </c>
       <c r="BE19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BF19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BG19">
         <v>0</v>
@@ -4099,10 +4060,10 @@
         <v>0</v>
       </c>
       <c r="BL19" s="1" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="BM19">
-        <v>0.03421016644095162</v>
+        <v>0.02978199006023853</v>
       </c>
       <c r="BN19">
         <v>1</v>
@@ -4120,7 +4081,7 @@
         <v>0</v>
       </c>
       <c r="BS19">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:71">
@@ -4128,13 +4089,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.0022178455454691</v>
+        <v>0.001491738939675328</v>
       </c>
       <c r="C20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -4146,13 +4107,13 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="K20">
-        <v>0.00148707045070492</v>
+        <v>0.001475063749991848</v>
       </c>
       <c r="L20">
         <v>1</v>
@@ -4170,19 +4131,19 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S20" s="1" t="s">
         <v>25</v>
       </c>
       <c r="T20">
-        <v>0.00261223112971062</v>
+        <v>0.001728617106314948</v>
       </c>
       <c r="U20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W20">
         <v>0</v>
@@ -4194,13 +4155,13 @@
         <v>0</v>
       </c>
       <c r="Z20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB20" s="1" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="AC20">
-        <v>0.0284528423031943</v>
+        <v>0.001658855286591396</v>
       </c>
       <c r="AD20">
         <v>1</v>
@@ -4218,19 +4179,19 @@
         <v>0</v>
       </c>
       <c r="AI20">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AK20" s="1" t="s">
         <v>25</v>
       </c>
       <c r="AL20">
-        <v>0.003188640829755918</v>
+        <v>0.002074823657557471</v>
       </c>
       <c r="AM20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AN20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AO20">
         <v>0</v>
@@ -4242,13 +4203,13 @@
         <v>0</v>
       </c>
       <c r="AR20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT20" s="1" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="AU20">
-        <v>0.03234046102359331</v>
+        <v>0.02459558129288096</v>
       </c>
       <c r="AV20">
         <v>1</v>
@@ -4266,19 +4227,19 @@
         <v>0</v>
       </c>
       <c r="BA20">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BC20" s="1" t="s">
         <v>25</v>
       </c>
       <c r="BD20">
-        <v>0.004110896349828396</v>
+        <v>0.002628754139545506</v>
       </c>
       <c r="BE20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BF20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BG20">
         <v>0</v>
@@ -4290,13 +4251,13 @@
         <v>0</v>
       </c>
       <c r="BJ20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BL20" s="1" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="BM20">
-        <v>0.03421016644095162</v>
+        <v>0.02940093884533375</v>
       </c>
       <c r="BN20">
         <v>1</v>
@@ -4314,7 +4275,7 @@
         <v>0</v>
       </c>
       <c r="BS20">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21" spans="1:71">
@@ -4322,7 +4283,7 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.001476555701139968</v>
+        <v>0.001491738939675328</v>
       </c>
       <c r="C21">
         <v>1</v>
@@ -4340,13 +4301,13 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="K21">
-        <v>0.00148707045070492</v>
+        <v>0.001469053520581391</v>
       </c>
       <c r="L21">
         <v>1</v>
@@ -4364,13 +4325,13 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="S21" s="1" t="s">
         <v>26</v>
       </c>
       <c r="T21">
-        <v>0.001731949439569775</v>
+        <v>0.001728617106314948</v>
       </c>
       <c r="U21">
         <v>1</v>
@@ -4388,13 +4349,13 @@
         <v>0</v>
       </c>
       <c r="Z21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB21" s="1" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="AC21">
-        <v>0.0284528423031943</v>
+        <v>0.001630306696891727</v>
       </c>
       <c r="AD21">
         <v>1</v>
@@ -4412,13 +4373,13 @@
         <v>0</v>
       </c>
       <c r="AI21">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AK21" s="1" t="s">
         <v>26</v>
       </c>
       <c r="AL21">
-        <v>0.002105217211121033</v>
+        <v>0.002074823657557471</v>
       </c>
       <c r="AM21">
         <v>1</v>
@@ -4436,13 +4397,13 @@
         <v>0</v>
       </c>
       <c r="AR21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT21" s="1" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="AU21">
-        <v>0.03234046102359331</v>
+        <v>0.02422578208598225</v>
       </c>
       <c r="AV21">
         <v>1</v>
@@ -4460,13 +4421,13 @@
         <v>0</v>
       </c>
       <c r="BA21">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BC21" s="1" t="s">
         <v>26</v>
       </c>
       <c r="BD21">
-        <v>0.002702445645603045</v>
+        <v>0.002628754139545506</v>
       </c>
       <c r="BE21">
         <v>1</v>
@@ -4484,13 +4445,13 @@
         <v>0</v>
       </c>
       <c r="BJ21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BL21" s="1" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="BM21">
-        <v>0.03421016644095162</v>
+        <v>0.02901988763042897</v>
       </c>
       <c r="BN21">
         <v>1</v>
@@ -4508,7 +4469,7 @@
         <v>0</v>
       </c>
       <c r="BS21">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="22" spans="1:71">
@@ -4516,7 +4477,7 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.001476555701139968</v>
+        <v>0.001491738939675328</v>
       </c>
       <c r="C22">
         <v>1</v>
@@ -4534,13 +4495,13 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="K22">
-        <v>0.00148707045070492</v>
+        <v>0.001463043291170935</v>
       </c>
       <c r="L22">
         <v>1</v>
@@ -4558,13 +4519,13 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="S22" s="1" t="s">
         <v>27</v>
       </c>
       <c r="T22">
-        <v>0.001731949439569775</v>
+        <v>0.001728617106314948</v>
       </c>
       <c r="U22">
         <v>1</v>
@@ -4582,13 +4543,13 @@
         <v>0</v>
       </c>
       <c r="Z22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB22" s="1" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="AC22">
-        <v>0.0284528423031943</v>
+        <v>0.001573209517492389</v>
       </c>
       <c r="AD22">
         <v>1</v>
@@ -4606,13 +4567,13 @@
         <v>0</v>
       </c>
       <c r="AI22">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AK22" s="1" t="s">
         <v>27</v>
       </c>
       <c r="AL22">
-        <v>0.002105217211121033</v>
+        <v>0.002074823657557471</v>
       </c>
       <c r="AM22">
         <v>1</v>
@@ -4630,13 +4591,13 @@
         <v>0</v>
       </c>
       <c r="AR22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT22" s="1" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="AU22">
-        <v>0.03234046102359331</v>
+        <v>0.0234861836721848</v>
       </c>
       <c r="AV22">
         <v>1</v>
@@ -4654,13 +4615,13 @@
         <v>0</v>
       </c>
       <c r="BA22">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="BC22" s="1" t="s">
         <v>27</v>
       </c>
       <c r="BD22">
-        <v>0.002702445645603045</v>
+        <v>0.002628754139545506</v>
       </c>
       <c r="BE22">
         <v>1</v>
@@ -4678,13 +4639,13 @@
         <v>0</v>
       </c>
       <c r="BJ22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BL22" s="1" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="BM22">
-        <v>0.03421016644095162</v>
+        <v>0.02825778520061942</v>
       </c>
       <c r="BN22">
         <v>1</v>
@@ -4702,7 +4663,7 @@
         <v>0</v>
       </c>
       <c r="BS22">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="23" spans="1:71">
@@ -4710,7 +4671,7 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.001476555701139968</v>
+        <v>0.001485728710264871</v>
       </c>
       <c r="C23">
         <v>1</v>
@@ -4728,13 +4689,13 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="K23">
-        <v>0.00148707045070492</v>
+        <v>0.001451022832350022</v>
       </c>
       <c r="L23">
         <v>1</v>
@@ -4752,13 +4713,13 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="S23" s="1" t="s">
         <v>28</v>
       </c>
       <c r="T23">
-        <v>0.001731949439569775</v>
+        <v>0.001700068516615279</v>
       </c>
       <c r="U23">
         <v>1</v>
@@ -4776,13 +4737,13 @@
         <v>0</v>
       </c>
       <c r="Z23">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AB23" s="1" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="AC23">
-        <v>0.02830914107944079</v>
+        <v>0.001487563748393383</v>
       </c>
       <c r="AD23">
         <v>1</v>
@@ -4800,13 +4761,13 @@
         <v>0</v>
       </c>
       <c r="AI23">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="AK23" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AL23">
-        <v>0.002105217211121033</v>
+        <v>0.002013334387435107</v>
       </c>
       <c r="AM23">
         <v>1</v>
@@ -4824,13 +4785,13 @@
         <v>0</v>
       </c>
       <c r="AR23">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AT23" s="1" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="AU23">
-        <v>0.03217712536185799</v>
+        <v>0.02237678605148863</v>
       </c>
       <c r="AV23">
         <v>1</v>
@@ -4848,13 +4809,13 @@
         <v>0</v>
       </c>
       <c r="BA23">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="BC23" s="1" t="s">
         <v>28</v>
       </c>
       <c r="BD23">
-        <v>0.002702445645603045</v>
+        <v>0.002514559780746831</v>
       </c>
       <c r="BE23">
         <v>1</v>
@@ -4872,13 +4833,13 @@
         <v>0</v>
       </c>
       <c r="BJ23">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BL23" s="1" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="BM23">
-        <v>0.03403738782256298</v>
+        <v>0.02711463155590509</v>
       </c>
       <c r="BN23">
         <v>1</v>
@@ -4896,7 +4857,7 @@
         <v>0</v>
       </c>
       <c r="BS23">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="24" spans="1:71">
@@ -4904,7 +4865,7 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.001476555701139968</v>
+        <v>0.001485728710264871</v>
       </c>
       <c r="C24">
         <v>1</v>
@@ -4922,13 +4883,13 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="K24">
-        <v>0.001481046463186622</v>
+        <v>0.001432992144118652</v>
       </c>
       <c r="L24">
         <v>1</v>
@@ -4946,13 +4907,13 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="S24" s="1" t="s">
         <v>29</v>
       </c>
       <c r="T24">
-        <v>0.001731949439569775</v>
+        <v>0.001700068516615279</v>
       </c>
       <c r="U24">
         <v>1</v>
@@ -4970,13 +4931,13 @@
         <v>0</v>
       </c>
       <c r="Z24">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AB24" s="1" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="AC24">
-        <v>0.02830914107944079</v>
+        <v>0.001430466568994045</v>
       </c>
       <c r="AD24">
         <v>1</v>
@@ -4994,13 +4955,13 @@
         <v>0</v>
       </c>
       <c r="AI24">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="AK24" s="1" t="s">
         <v>29</v>
       </c>
       <c r="AL24">
-        <v>0.002105217211121033</v>
+        <v>0.002013334387435107</v>
       </c>
       <c r="AM24">
         <v>1</v>
@@ -5018,13 +4979,13 @@
         <v>0</v>
       </c>
       <c r="AR24">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AT24" s="1" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="AU24">
-        <v>0.03217712536185799</v>
+        <v>0.02163718763769119</v>
       </c>
       <c r="AV24">
         <v>1</v>
@@ -5042,13 +5003,13 @@
         <v>0</v>
       </c>
       <c r="BA24">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="BC24" s="1" t="s">
         <v>29</v>
       </c>
       <c r="BD24">
-        <v>0.002702445645603045</v>
+        <v>0.002514559780746831</v>
       </c>
       <c r="BE24">
         <v>1</v>
@@ -5066,13 +5027,13 @@
         <v>0</v>
       </c>
       <c r="BJ24">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BL24" s="1" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="BM24">
-        <v>0.03403738782256298</v>
+        <v>0.02635252912609553</v>
       </c>
       <c r="BN24">
         <v>1</v>
@@ -5090,39 +5051,15 @@
         <v>0</v>
       </c>
       <c r="BS24">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="25" spans="1:71">
-      <c r="A25" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B25">
-        <v>0.001476555701139968</v>
-      </c>
-      <c r="C25">
-        <v>1</v>
-      </c>
-      <c r="D25">
-        <v>1</v>
-      </c>
-      <c r="E25">
-        <v>0</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25" t="b">
-        <v>0</v>
-      </c>
-      <c r="H25">
-        <v>0</v>
-      </c>
       <c r="J25" s="1" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="K25">
-        <v>0.001481046463186622</v>
+        <v>0.001420971685297739</v>
       </c>
       <c r="L25">
         <v>1</v>
@@ -5140,37 +5077,13 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>1</v>
-      </c>
-      <c r="S25" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="T25">
-        <v>0.001731949439569775</v>
-      </c>
-      <c r="U25">
-        <v>1</v>
-      </c>
-      <c r="V25">
-        <v>1</v>
-      </c>
-      <c r="W25">
-        <v>0</v>
-      </c>
-      <c r="X25">
-        <v>1</v>
-      </c>
-      <c r="Y25" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z25">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AB25" s="1" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="AC25">
-        <v>0.02816543985568729</v>
+        <v>0.001430466568994045</v>
       </c>
       <c r="AD25">
         <v>1</v>
@@ -5188,37 +5101,13 @@
         <v>0</v>
       </c>
       <c r="AI25">
-        <v>2</v>
-      </c>
-      <c r="AK25" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="AL25">
-        <v>0.002105217211121033</v>
-      </c>
-      <c r="AM25">
-        <v>1</v>
-      </c>
-      <c r="AN25">
-        <v>1</v>
-      </c>
-      <c r="AO25">
-        <v>0</v>
-      </c>
-      <c r="AP25">
-        <v>1</v>
-      </c>
-      <c r="AQ25" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR25">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AT25" s="1" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="AU25">
-        <v>0.03201378970012267</v>
+        <v>0.02163718763769119</v>
       </c>
       <c r="AV25">
         <v>1</v>
@@ -5236,37 +5125,13 @@
         <v>0</v>
       </c>
       <c r="BA25">
-        <v>2</v>
-      </c>
-      <c r="BC25" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="BD25">
-        <v>0.002702445645603045</v>
-      </c>
-      <c r="BE25">
-        <v>1</v>
-      </c>
-      <c r="BF25">
-        <v>1</v>
-      </c>
-      <c r="BG25">
-        <v>0</v>
-      </c>
-      <c r="BH25">
-        <v>1</v>
-      </c>
-      <c r="BI25" t="b">
-        <v>0</v>
-      </c>
-      <c r="BJ25">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="BL25" s="1" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="BM25">
-        <v>0.03386460920417433</v>
+        <v>0.02635252912609553</v>
       </c>
       <c r="BN25">
         <v>1</v>
@@ -5284,39 +5149,15 @@
         <v>0</v>
       </c>
       <c r="BS25">
-        <v>2</v>
+        <v>11</v>
       </c>
     </row>
     <row r="26" spans="1:71">
-      <c r="A26" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B26">
-        <v>0.001476555701139968</v>
-      </c>
-      <c r="C26">
-        <v>1</v>
-      </c>
-      <c r="D26">
-        <v>1</v>
-      </c>
-      <c r="E26">
-        <v>0</v>
-      </c>
-      <c r="F26">
-        <v>1</v>
-      </c>
-      <c r="G26" t="b">
-        <v>0</v>
-      </c>
-      <c r="H26">
-        <v>0</v>
-      </c>
       <c r="J26" s="1" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="K26">
-        <v>0.001475022475668324</v>
+        <v>0.001420971685297739</v>
       </c>
       <c r="L26">
         <v>1</v>
@@ -5334,37 +5175,13 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>2</v>
-      </c>
-      <c r="S26" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="T26">
-        <v>0.001731949439569775</v>
-      </c>
-      <c r="U26">
-        <v>1</v>
-      </c>
-      <c r="V26">
-        <v>1</v>
-      </c>
-      <c r="W26">
-        <v>0</v>
-      </c>
-      <c r="X26">
-        <v>1</v>
-      </c>
-      <c r="Y26" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z26">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AB26" s="1" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="AC26">
-        <v>0.02759063496067326</v>
+        <v>0.00131627221019537</v>
       </c>
       <c r="AD26">
         <v>1</v>
@@ -5382,37 +5199,13 @@
         <v>0</v>
       </c>
       <c r="AI26">
-        <v>6</v>
-      </c>
-      <c r="AK26" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="AL26">
-        <v>0.002105217211121033</v>
-      </c>
-      <c r="AM26">
-        <v>1</v>
-      </c>
-      <c r="AN26">
-        <v>1</v>
-      </c>
-      <c r="AO26">
-        <v>0</v>
-      </c>
-      <c r="AP26">
-        <v>1</v>
-      </c>
-      <c r="AQ26" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR26">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AT26" s="1" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="AU26">
-        <v>0.03136044705318139</v>
+        <v>0.0201579908100963</v>
       </c>
       <c r="AV26">
         <v>1</v>
@@ -5430,37 +5223,13 @@
         <v>0</v>
       </c>
       <c r="BA26">
-        <v>6</v>
-      </c>
-      <c r="BC26" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="BD26">
-        <v>0.002702445645603045</v>
-      </c>
-      <c r="BE26">
-        <v>1</v>
-      </c>
-      <c r="BF26">
-        <v>1</v>
-      </c>
-      <c r="BG26">
-        <v>0</v>
-      </c>
-      <c r="BH26">
-        <v>1</v>
-      </c>
-      <c r="BI26" t="b">
-        <v>0</v>
-      </c>
-      <c r="BJ26">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="BL26" s="1" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="BM26">
-        <v>0.03317349473061976</v>
+        <v>0.02482832426647642</v>
       </c>
       <c r="BN26">
         <v>1</v>
@@ -5478,39 +5247,15 @@
         <v>0</v>
       </c>
       <c r="BS26">
-        <v>6</v>
+        <v>15</v>
       </c>
     </row>
     <row r="27" spans="1:71">
-      <c r="A27" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B27">
-        <v>0.001476555701139968</v>
-      </c>
-      <c r="C27">
-        <v>1</v>
-      </c>
-      <c r="D27">
-        <v>1</v>
-      </c>
-      <c r="E27">
-        <v>0</v>
-      </c>
-      <c r="F27">
-        <v>1</v>
-      </c>
-      <c r="G27" t="b">
-        <v>0</v>
-      </c>
-      <c r="H27">
-        <v>0</v>
-      </c>
       <c r="J27" s="1" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="K27">
-        <v>0.001450926525595133</v>
+        <v>0.001396930767655912</v>
       </c>
       <c r="L27">
         <v>1</v>
@@ -5528,43 +5273,19 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>6</v>
-      </c>
-      <c r="S27" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="T27">
-        <v>0.001731949439569775</v>
-      </c>
-      <c r="U27">
-        <v>1</v>
-      </c>
-      <c r="V27">
-        <v>1</v>
-      </c>
-      <c r="W27">
-        <v>0</v>
-      </c>
-      <c r="X27">
-        <v>1</v>
-      </c>
-      <c r="Y27" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z27">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AB27" s="1" t="s">
-        <v>67</v>
+        <v>38</v>
       </c>
       <c r="AC27">
-        <v>0.02759063496067326</v>
+        <v>0.0005199487826152463</v>
       </c>
       <c r="AD27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AE27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AF27">
         <v>1</v>
@@ -5576,43 +5297,19 @@
         <v>0</v>
       </c>
       <c r="AI27">
-        <v>6</v>
-      </c>
-      <c r="AK27" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="AL27">
-        <v>0.002105217211121033</v>
-      </c>
-      <c r="AM27">
-        <v>1</v>
-      </c>
-      <c r="AN27">
-        <v>1</v>
-      </c>
-      <c r="AO27">
-        <v>0</v>
-      </c>
-      <c r="AP27">
-        <v>1</v>
-      </c>
-      <c r="AQ27" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR27">
-        <v>0</v>
+        <v>105</v>
       </c>
       <c r="AT27" s="1" t="s">
-        <v>67</v>
+        <v>38</v>
       </c>
       <c r="AU27">
-        <v>0.03136044705318139</v>
+        <v>0</v>
       </c>
       <c r="AV27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AW27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AX27">
         <v>1</v>
@@ -5624,43 +5321,19 @@
         <v>0</v>
       </c>
       <c r="BA27">
-        <v>6</v>
-      </c>
-      <c r="BC27" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="BD27">
-        <v>0.002702445645603045</v>
-      </c>
-      <c r="BE27">
-        <v>1</v>
-      </c>
-      <c r="BF27">
-        <v>1</v>
-      </c>
-      <c r="BG27">
-        <v>0</v>
-      </c>
-      <c r="BH27">
-        <v>1</v>
-      </c>
-      <c r="BI27" t="b">
-        <v>0</v>
-      </c>
-      <c r="BJ27">
-        <v>0</v>
+        <v>105</v>
       </c>
       <c r="BL27" s="1" t="s">
-        <v>67</v>
+        <v>38</v>
       </c>
       <c r="BM27">
-        <v>0.03317349473061976</v>
+        <v>0</v>
       </c>
       <c r="BN27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BO27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BP27">
         <v>1</v>
@@ -5672,983 +5345,7 @@
         <v>0</v>
       </c>
       <c r="BS27">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="28" spans="1:71">
-      <c r="A28" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B28">
-        <v>0.001476555701139968</v>
-      </c>
-      <c r="C28">
-        <v>1</v>
-      </c>
-      <c r="D28">
-        <v>1</v>
-      </c>
-      <c r="E28">
-        <v>0</v>
-      </c>
-      <c r="F28">
-        <v>1</v>
-      </c>
-      <c r="G28" t="b">
-        <v>0</v>
-      </c>
-      <c r="H28">
-        <v>0</v>
-      </c>
-      <c r="J28" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="K28">
-        <v>0.001450926525595133</v>
-      </c>
-      <c r="L28">
-        <v>1</v>
-      </c>
-      <c r="M28">
-        <v>1</v>
-      </c>
-      <c r="N28">
-        <v>1</v>
-      </c>
-      <c r="O28">
-        <v>0</v>
-      </c>
-      <c r="P28" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q28">
-        <v>6</v>
-      </c>
-      <c r="S28" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="T28">
-        <v>0.001731949439569775</v>
-      </c>
-      <c r="U28">
-        <v>1</v>
-      </c>
-      <c r="V28">
-        <v>1</v>
-      </c>
-      <c r="W28">
-        <v>0</v>
-      </c>
-      <c r="X28">
-        <v>1</v>
-      </c>
-      <c r="Y28" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z28">
-        <v>0</v>
-      </c>
-      <c r="AB28" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="AC28">
-        <v>0.01767270262764312</v>
-      </c>
-      <c r="AD28">
-        <v>2</v>
-      </c>
-      <c r="AE28">
-        <v>2</v>
-      </c>
-      <c r="AF28">
-        <v>1</v>
-      </c>
-      <c r="AG28">
-        <v>0</v>
-      </c>
-      <c r="AH28" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI28">
-        <v>106</v>
-      </c>
-      <c r="AK28" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="AL28">
-        <v>0.002105217211121033</v>
-      </c>
-      <c r="AM28">
-        <v>1</v>
-      </c>
-      <c r="AN28">
-        <v>1</v>
-      </c>
-      <c r="AO28">
-        <v>0</v>
-      </c>
-      <c r="AP28">
-        <v>1</v>
-      </c>
-      <c r="AQ28" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR28">
-        <v>0</v>
-      </c>
-      <c r="AT28" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="AU28">
-        <v>0.01791860058903439</v>
-      </c>
-      <c r="AV28">
-        <v>2</v>
-      </c>
-      <c r="AW28">
-        <v>2</v>
-      </c>
-      <c r="AX28">
-        <v>1</v>
-      </c>
-      <c r="AY28">
-        <v>0</v>
-      </c>
-      <c r="AZ28" t="b">
-        <v>0</v>
-      </c>
-      <c r="BA28">
-        <v>106</v>
-      </c>
-      <c r="BC28" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="BD28">
-        <v>0.002702445645603045</v>
-      </c>
-      <c r="BE28">
-        <v>1</v>
-      </c>
-      <c r="BF28">
-        <v>1</v>
-      </c>
-      <c r="BG28">
-        <v>0</v>
-      </c>
-      <c r="BH28">
-        <v>1</v>
-      </c>
-      <c r="BI28" t="b">
-        <v>0</v>
-      </c>
-      <c r="BJ28">
-        <v>0</v>
-      </c>
-      <c r="BL28" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="BM28">
-        <v>0.01803686237950223</v>
-      </c>
-      <c r="BN28">
-        <v>2</v>
-      </c>
-      <c r="BO28">
-        <v>2</v>
-      </c>
-      <c r="BP28">
-        <v>1</v>
-      </c>
-      <c r="BQ28">
-        <v>0</v>
-      </c>
-      <c r="BR28" t="b">
-        <v>0</v>
-      </c>
-      <c r="BS28">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="29" spans="1:71">
-      <c r="A29" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B29">
-        <v>0.001476555701139968</v>
-      </c>
-      <c r="C29">
-        <v>1</v>
-      </c>
-      <c r="D29">
-        <v>1</v>
-      </c>
-      <c r="E29">
-        <v>0</v>
-      </c>
-      <c r="F29">
-        <v>1</v>
-      </c>
-      <c r="G29" t="b">
-        <v>0</v>
-      </c>
-      <c r="H29">
-        <v>0</v>
-      </c>
-      <c r="J29" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="K29">
-        <v>0.0002943209220819422</v>
-      </c>
-      <c r="L29">
-        <v>1</v>
-      </c>
-      <c r="M29">
-        <v>1</v>
-      </c>
-      <c r="N29">
-        <v>1</v>
-      </c>
-      <c r="O29">
-        <v>0</v>
-      </c>
-      <c r="P29" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q29">
-        <v>198</v>
-      </c>
-      <c r="S29" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="T29">
-        <v>0.001731949439569775</v>
-      </c>
-      <c r="U29">
-        <v>1</v>
-      </c>
-      <c r="V29">
-        <v>1</v>
-      </c>
-      <c r="W29">
-        <v>0</v>
-      </c>
-      <c r="X29">
-        <v>1</v>
-      </c>
-      <c r="Y29" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z29">
-        <v>0</v>
-      </c>
-      <c r="AB29" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="AC29">
-        <v>0</v>
-      </c>
-      <c r="AD29">
-        <v>1</v>
-      </c>
-      <c r="AE29">
-        <v>1</v>
-      </c>
-      <c r="AF29">
-        <v>1</v>
-      </c>
-      <c r="AG29">
-        <v>0</v>
-      </c>
-      <c r="AH29" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI29">
-        <v>198</v>
-      </c>
-      <c r="AK29" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="AL29">
-        <v>0.002105217211121033</v>
-      </c>
-      <c r="AM29">
-        <v>1</v>
-      </c>
-      <c r="AN29">
-        <v>1</v>
-      </c>
-      <c r="AO29">
-        <v>0</v>
-      </c>
-      <c r="AP29">
-        <v>1</v>
-      </c>
-      <c r="AQ29" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR29">
-        <v>0</v>
-      </c>
-      <c r="AT29" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="AU29">
-        <v>0</v>
-      </c>
-      <c r="AV29">
-        <v>1</v>
-      </c>
-      <c r="AW29">
-        <v>1</v>
-      </c>
-      <c r="AX29">
-        <v>1</v>
-      </c>
-      <c r="AY29">
-        <v>0</v>
-      </c>
-      <c r="AZ29" t="b">
-        <v>0</v>
-      </c>
-      <c r="BA29">
-        <v>198</v>
-      </c>
-      <c r="BC29" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="BD29">
-        <v>0.002702445645603045</v>
-      </c>
-      <c r="BE29">
-        <v>1</v>
-      </c>
-      <c r="BF29">
-        <v>1</v>
-      </c>
-      <c r="BG29">
-        <v>0</v>
-      </c>
-      <c r="BH29">
-        <v>1</v>
-      </c>
-      <c r="BI29" t="b">
-        <v>0</v>
-      </c>
-      <c r="BJ29">
-        <v>0</v>
-      </c>
-      <c r="BL29" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="BM29">
-        <v>0</v>
-      </c>
-      <c r="BN29">
-        <v>1</v>
-      </c>
-      <c r="BO29">
-        <v>1</v>
-      </c>
-      <c r="BP29">
-        <v>1</v>
-      </c>
-      <c r="BQ29">
-        <v>0</v>
-      </c>
-      <c r="BR29" t="b">
-        <v>0</v>
-      </c>
-      <c r="BS29">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="30" spans="1:71">
-      <c r="A30" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B30">
-        <v>0.001476555701139968</v>
-      </c>
-      <c r="C30">
-        <v>1</v>
-      </c>
-      <c r="D30">
-        <v>1</v>
-      </c>
-      <c r="E30">
-        <v>0</v>
-      </c>
-      <c r="F30">
-        <v>1</v>
-      </c>
-      <c r="G30" t="b">
-        <v>0</v>
-      </c>
-      <c r="H30">
-        <v>0</v>
-      </c>
-      <c r="S30" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="T30">
-        <v>0.001731949439569775</v>
-      </c>
-      <c r="U30">
-        <v>1</v>
-      </c>
-      <c r="V30">
-        <v>1</v>
-      </c>
-      <c r="W30">
-        <v>0</v>
-      </c>
-      <c r="X30">
-        <v>1</v>
-      </c>
-      <c r="Y30" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z30">
-        <v>0</v>
-      </c>
-      <c r="AK30" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="AL30">
-        <v>0.002105217211121033</v>
-      </c>
-      <c r="AM30">
-        <v>1</v>
-      </c>
-      <c r="AN30">
-        <v>1</v>
-      </c>
-      <c r="AO30">
-        <v>0</v>
-      </c>
-      <c r="AP30">
-        <v>1</v>
-      </c>
-      <c r="AQ30" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR30">
-        <v>0</v>
-      </c>
-      <c r="BC30" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="BD30">
-        <v>0.002702445645603045</v>
-      </c>
-      <c r="BE30">
-        <v>1</v>
-      </c>
-      <c r="BF30">
-        <v>1</v>
-      </c>
-      <c r="BG30">
-        <v>0</v>
-      </c>
-      <c r="BH30">
-        <v>1</v>
-      </c>
-      <c r="BI30" t="b">
-        <v>0</v>
-      </c>
-      <c r="BJ30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:71">
-      <c r="A31" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B31">
-        <v>0.001476555701139968</v>
-      </c>
-      <c r="C31">
-        <v>1</v>
-      </c>
-      <c r="D31">
-        <v>1</v>
-      </c>
-      <c r="E31">
-        <v>0</v>
-      </c>
-      <c r="F31">
-        <v>1</v>
-      </c>
-      <c r="G31" t="b">
-        <v>0</v>
-      </c>
-      <c r="H31">
-        <v>0</v>
-      </c>
-      <c r="S31" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="T31">
-        <v>0.001731949439569775</v>
-      </c>
-      <c r="U31">
-        <v>1</v>
-      </c>
-      <c r="V31">
-        <v>1</v>
-      </c>
-      <c r="W31">
-        <v>0</v>
-      </c>
-      <c r="X31">
-        <v>1</v>
-      </c>
-      <c r="Y31" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z31">
-        <v>0</v>
-      </c>
-      <c r="AK31" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="AL31">
-        <v>0.002105217211121033</v>
-      </c>
-      <c r="AM31">
-        <v>1</v>
-      </c>
-      <c r="AN31">
-        <v>1</v>
-      </c>
-      <c r="AO31">
-        <v>0</v>
-      </c>
-      <c r="AP31">
-        <v>1</v>
-      </c>
-      <c r="AQ31" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR31">
-        <v>0</v>
-      </c>
-      <c r="BC31" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="BD31">
-        <v>0.002702445645603045</v>
-      </c>
-      <c r="BE31">
-        <v>1</v>
-      </c>
-      <c r="BF31">
-        <v>1</v>
-      </c>
-      <c r="BG31">
-        <v>0</v>
-      </c>
-      <c r="BH31">
-        <v>1</v>
-      </c>
-      <c r="BI31" t="b">
-        <v>0</v>
-      </c>
-      <c r="BJ31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:71">
-      <c r="A32" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B32">
-        <v>0.001476555701139968</v>
-      </c>
-      <c r="C32">
-        <v>1</v>
-      </c>
-      <c r="D32">
-        <v>1</v>
-      </c>
-      <c r="E32">
-        <v>0</v>
-      </c>
-      <c r="F32">
-        <v>1</v>
-      </c>
-      <c r="G32" t="b">
-        <v>0</v>
-      </c>
-      <c r="H32">
-        <v>0</v>
-      </c>
-      <c r="S32" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="T32">
-        <v>0.001731949439569775</v>
-      </c>
-      <c r="U32">
-        <v>1</v>
-      </c>
-      <c r="V32">
-        <v>1</v>
-      </c>
-      <c r="W32">
-        <v>0</v>
-      </c>
-      <c r="X32">
-        <v>1</v>
-      </c>
-      <c r="Y32" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z32">
-        <v>0</v>
-      </c>
-      <c r="AK32" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="AL32">
-        <v>0.002105217211121033</v>
-      </c>
-      <c r="AM32">
-        <v>1</v>
-      </c>
-      <c r="AN32">
-        <v>1</v>
-      </c>
-      <c r="AO32">
-        <v>0</v>
-      </c>
-      <c r="AP32">
-        <v>1</v>
-      </c>
-      <c r="AQ32" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR32">
-        <v>0</v>
-      </c>
-      <c r="BC32" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="BD32">
-        <v>0.002702445645603045</v>
-      </c>
-      <c r="BE32">
-        <v>1</v>
-      </c>
-      <c r="BF32">
-        <v>1</v>
-      </c>
-      <c r="BG32">
-        <v>0</v>
-      </c>
-      <c r="BH32">
-        <v>1</v>
-      </c>
-      <c r="BI32" t="b">
-        <v>0</v>
-      </c>
-      <c r="BJ32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:62">
-      <c r="A33" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B33">
-        <v>0.001476555701139968</v>
-      </c>
-      <c r="C33">
-        <v>1</v>
-      </c>
-      <c r="D33">
-        <v>1</v>
-      </c>
-      <c r="E33">
-        <v>0</v>
-      </c>
-      <c r="F33">
-        <v>1</v>
-      </c>
-      <c r="G33" t="b">
-        <v>0</v>
-      </c>
-      <c r="H33">
-        <v>0</v>
-      </c>
-      <c r="S33" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="T33">
-        <v>0.001731949439569775</v>
-      </c>
-      <c r="U33">
-        <v>1</v>
-      </c>
-      <c r="V33">
-        <v>1</v>
-      </c>
-      <c r="W33">
-        <v>0</v>
-      </c>
-      <c r="X33">
-        <v>1</v>
-      </c>
-      <c r="Y33" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z33">
-        <v>0</v>
-      </c>
-      <c r="AK33" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="AL33">
-        <v>0.002105217211121033</v>
-      </c>
-      <c r="AM33">
-        <v>1</v>
-      </c>
-      <c r="AN33">
-        <v>1</v>
-      </c>
-      <c r="AO33">
-        <v>0</v>
-      </c>
-      <c r="AP33">
-        <v>1</v>
-      </c>
-      <c r="AQ33" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR33">
-        <v>0</v>
-      </c>
-      <c r="BC33" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="BD33">
-        <v>0.002702445645603045</v>
-      </c>
-      <c r="BE33">
-        <v>1</v>
-      </c>
-      <c r="BF33">
-        <v>1</v>
-      </c>
-      <c r="BG33">
-        <v>0</v>
-      </c>
-      <c r="BH33">
-        <v>1</v>
-      </c>
-      <c r="BI33" t="b">
-        <v>0</v>
-      </c>
-      <c r="BJ33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:62">
-      <c r="A34" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B34">
-        <v>0.00147053171362167</v>
-      </c>
-      <c r="C34">
-        <v>1</v>
-      </c>
-      <c r="D34">
-        <v>1</v>
-      </c>
-      <c r="E34">
-        <v>0</v>
-      </c>
-      <c r="F34">
-        <v>1</v>
-      </c>
-      <c r="G34" t="b">
-        <v>0</v>
-      </c>
-      <c r="H34">
-        <v>1</v>
-      </c>
-      <c r="S34" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="T34">
-        <v>0.00170333549885786</v>
-      </c>
-      <c r="U34">
-        <v>1</v>
-      </c>
-      <c r="V34">
-        <v>1</v>
-      </c>
-      <c r="W34">
-        <v>0</v>
-      </c>
-      <c r="X34">
-        <v>1</v>
-      </c>
-      <c r="Y34" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z34">
-        <v>1</v>
-      </c>
-      <c r="AK34" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="AL34">
-        <v>0.002043587184972293</v>
-      </c>
-      <c r="AM34">
-        <v>1</v>
-      </c>
-      <c r="AN34">
-        <v>1</v>
-      </c>
-      <c r="AO34">
-        <v>0</v>
-      </c>
-      <c r="AP34">
-        <v>1</v>
-      </c>
-      <c r="AQ34" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR34">
-        <v>1</v>
-      </c>
-      <c r="BC34" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="BD34">
-        <v>0.002587989882755385</v>
-      </c>
-      <c r="BE34">
-        <v>1</v>
-      </c>
-      <c r="BF34">
-        <v>1</v>
-      </c>
-      <c r="BG34">
-        <v>0</v>
-      </c>
-      <c r="BH34">
-        <v>1</v>
-      </c>
-      <c r="BI34" t="b">
-        <v>0</v>
-      </c>
-      <c r="BJ34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:62">
-      <c r="A35" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B35">
-        <v>0.00147053171362167</v>
-      </c>
-      <c r="C35">
-        <v>1</v>
-      </c>
-      <c r="D35">
-        <v>1</v>
-      </c>
-      <c r="E35">
-        <v>0</v>
-      </c>
-      <c r="F35">
-        <v>1</v>
-      </c>
-      <c r="G35" t="b">
-        <v>0</v>
-      </c>
-      <c r="H35">
-        <v>1</v>
-      </c>
-      <c r="S35" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="T35">
-        <v>0.00170333549885786</v>
-      </c>
-      <c r="U35">
-        <v>1</v>
-      </c>
-      <c r="V35">
-        <v>1</v>
-      </c>
-      <c r="W35">
-        <v>0</v>
-      </c>
-      <c r="X35">
-        <v>1</v>
-      </c>
-      <c r="Y35" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z35">
-        <v>1</v>
-      </c>
-      <c r="AK35" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="AL35">
-        <v>0.002043587184972293</v>
-      </c>
-      <c r="AM35">
-        <v>1</v>
-      </c>
-      <c r="AN35">
-        <v>1</v>
-      </c>
-      <c r="AO35">
-        <v>0</v>
-      </c>
-      <c r="AP35">
-        <v>1</v>
-      </c>
-      <c r="AQ35" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR35">
-        <v>1</v>
-      </c>
-      <c r="BC35" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="BD35">
-        <v>0.002587989882755385</v>
-      </c>
-      <c r="BE35">
-        <v>1</v>
-      </c>
-      <c r="BF35">
-        <v>1</v>
-      </c>
-      <c r="BG35">
-        <v>0</v>
-      </c>
-      <c r="BH35">
-        <v>1</v>
-      </c>
-      <c r="BI35" t="b">
-        <v>0</v>
-      </c>
-      <c r="BJ35">
-        <v>1</v>
+        <v>105</v>
       </c>
     </row>
   </sheetData>
